--- a/A1/data1.xlsx
+++ b/A1/data1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,6 +81,178 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>AC w S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AM w S</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CIU w S</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CIU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1129.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1191.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1052.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1097.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1129.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1183.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2115144488"/>
+        <c:axId val="-2119614600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2115144488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119614600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2119614600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115144488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2" title="Average cycles to saturation"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G21"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G21"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -833,8 +1005,35 @@
         <v>1193</v>
       </c>
     </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
+        <f>SUM(B2:B21)/20</f>
+        <v>1129.75</v>
+      </c>
+      <c r="C22">
+        <f>SUM(C2:C21)/20</f>
+        <v>1191.75</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D2:D21)/20</f>
+        <v>1052.5</v>
+      </c>
+      <c r="E22">
+        <f>SUM(E2:E21)/20</f>
+        <v>1097.05</v>
+      </c>
+      <c r="F22">
+        <f>SUM(F2:F21)/20</f>
+        <v>1129.45</v>
+      </c>
+      <c r="G22">
+        <f>SUM(G2:G21)/20</f>
+        <v>1183.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
